--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1011716666666667</v>
+        <v>0.2781226666666667</v>
       </c>
       <c r="H2">
-        <v>0.303515</v>
+        <v>0.834368</v>
       </c>
       <c r="I2">
-        <v>0.09218907089551105</v>
+        <v>0.2500965174582698</v>
       </c>
       <c r="J2">
-        <v>0.09218907089551105</v>
+        <v>0.2500965174582697</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N2">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O2">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P2">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q2">
-        <v>0.04505096751722222</v>
+        <v>0.3771805970702223</v>
       </c>
       <c r="R2">
-        <v>0.405458707655</v>
+        <v>3.394625373632</v>
       </c>
       <c r="S2">
-        <v>0.02427554437392586</v>
+        <v>0.1110141535092094</v>
       </c>
       <c r="T2">
-        <v>0.02427554437392586</v>
+        <v>0.1110141535092094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1011716666666667</v>
+        <v>0.2781226666666667</v>
       </c>
       <c r="H3">
-        <v>0.303515</v>
+        <v>0.834368</v>
       </c>
       <c r="I3">
-        <v>0.09218907089551105</v>
+        <v>0.2500965174582698</v>
       </c>
       <c r="J3">
-        <v>0.09218907089551105</v>
+        <v>0.2500965174582697</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N3">
         <v>2.882709</v>
       </c>
       <c r="O3">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P3">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q3">
-        <v>0.09721615801499998</v>
+        <v>0.2672489047680001</v>
       </c>
       <c r="R3">
-        <v>0.8749454221349998</v>
+        <v>2.405240142912</v>
       </c>
       <c r="S3">
-        <v>0.05238456103864012</v>
+        <v>0.07865836994144024</v>
       </c>
       <c r="T3">
-        <v>0.05238456103864011</v>
+        <v>0.07865836994144021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1011716666666667</v>
+        <v>0.2781226666666667</v>
       </c>
       <c r="H4">
-        <v>0.303515</v>
+        <v>0.834368</v>
       </c>
       <c r="I4">
-        <v>0.09218907089551105</v>
+        <v>0.2500965174582698</v>
       </c>
       <c r="J4">
-        <v>0.09218907089551105</v>
+        <v>0.2500965174582697</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N4">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O4">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P4">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q4">
-        <v>0.01850429783333333</v>
+        <v>0.146247188672</v>
       </c>
       <c r="R4">
-        <v>0.1665386805</v>
+        <v>1.316224698048</v>
       </c>
       <c r="S4">
-        <v>0.009970971278024189</v>
+        <v>0.04304438770083672</v>
       </c>
       <c r="T4">
-        <v>0.009970971278024187</v>
+        <v>0.04304438770083671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2781226666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.834368</v>
+      </c>
+      <c r="I5">
+        <v>0.2500965174582698</v>
+      </c>
+      <c r="J5">
+        <v>0.2500965174582697</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.1011716666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.303515</v>
-      </c>
-      <c r="I5">
-        <v>0.09218907089551105</v>
-      </c>
-      <c r="J5">
-        <v>0.09218907089551105</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N5">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O5">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P5">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q5">
-        <v>0.01031462003611111</v>
+        <v>0.05904877960533333</v>
       </c>
       <c r="R5">
-        <v>0.09283158032500001</v>
+        <v>0.531439016448</v>
       </c>
       <c r="S5">
-        <v>0.005557994204920883</v>
+        <v>0.01737960630678336</v>
       </c>
       <c r="T5">
-        <v>0.005557994204920883</v>
+        <v>0.01737960630678336</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1.813234</v>
       </c>
       <c r="I6">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868915</v>
       </c>
       <c r="J6">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868914</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N6">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O6">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P6">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q6">
-        <v>0.2691397329131111</v>
+        <v>0.8196823017517777</v>
       </c>
       <c r="R6">
-        <v>2.422257596218</v>
+        <v>7.377140715766</v>
       </c>
       <c r="S6">
-        <v>0.1450249326303843</v>
+        <v>0.2412540241525536</v>
       </c>
       <c r="T6">
-        <v>0.1450249326303843</v>
+        <v>0.2412540241525535</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.813234</v>
       </c>
       <c r="I7">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868915</v>
       </c>
       <c r="J7">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N7">
         <v>2.882709</v>
       </c>
       <c r="O7">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P7">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q7">
-        <v>0.5807806634339999</v>
+        <v>0.580780663434</v>
       </c>
       <c r="R7">
-        <v>5.227025970905999</v>
+        <v>5.227025970906</v>
       </c>
       <c r="S7">
-        <v>0.3129514757107147</v>
+        <v>0.1709389990536519</v>
       </c>
       <c r="T7">
-        <v>0.3129514757107147</v>
+        <v>0.1709389990536518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>1.813234</v>
       </c>
       <c r="I8">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868915</v>
       </c>
       <c r="J8">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868914</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N8">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O8">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P8">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q8">
-        <v>0.1105468328666667</v>
+        <v>0.317821842286</v>
       </c>
       <c r="R8">
-        <v>0.9949214958</v>
+        <v>2.860396580574</v>
       </c>
       <c r="S8">
-        <v>0.05956774503512813</v>
+        <v>0.09354331336812888</v>
       </c>
       <c r="T8">
-        <v>0.05956774503512812</v>
+        <v>0.09354331336812886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1.813234</v>
       </c>
       <c r="I9">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868915</v>
       </c>
       <c r="J9">
-        <v>0.550748258821314</v>
+        <v>0.5435053941868914</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N9">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O9">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P9">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q9">
-        <v>0.06162074278555556</v>
+        <v>0.1283237790026666</v>
       </c>
       <c r="R9">
-        <v>0.5545866850700001</v>
+        <v>1.154914011024</v>
       </c>
       <c r="S9">
-        <v>0.03320410544508678</v>
+        <v>0.03776905761255708</v>
       </c>
       <c r="T9">
-        <v>0.03320410544508678</v>
+        <v>0.03776905761255707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1273193333333333</v>
+        <v>0.183755</v>
       </c>
       <c r="H10">
-        <v>0.381958</v>
+        <v>0.551265</v>
       </c>
       <c r="I10">
-        <v>0.116015199054767</v>
+        <v>0.1652381883013647</v>
       </c>
       <c r="J10">
-        <v>0.116015199054767</v>
+        <v>0.1652381883013647</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N10">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O10">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P10">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q10">
-        <v>0.05669432301844444</v>
+        <v>0.2492023445816667</v>
       </c>
       <c r="R10">
-        <v>0.5102489071659999</v>
+        <v>2.242821101235</v>
       </c>
       <c r="S10">
-        <v>0.0305495226857848</v>
+        <v>0.07334679342239196</v>
       </c>
       <c r="T10">
-        <v>0.03054952268578479</v>
+        <v>0.07334679342239195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1273193333333333</v>
+        <v>0.183755</v>
       </c>
       <c r="H11">
-        <v>0.381958</v>
+        <v>0.551265</v>
       </c>
       <c r="I11">
-        <v>0.116015199054767</v>
+        <v>0.1652381883013647</v>
       </c>
       <c r="J11">
-        <v>0.116015199054767</v>
+        <v>0.1652381883013647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N11">
         <v>2.882709</v>
       </c>
       <c r="O11">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P11">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q11">
-        <v>0.122341529358</v>
+        <v>0.176570730765</v>
       </c>
       <c r="R11">
-        <v>1.101073764222</v>
+        <v>1.589136576885</v>
       </c>
       <c r="S11">
-        <v>0.06592327287019391</v>
+        <v>0.05196940235695526</v>
       </c>
       <c r="T11">
-        <v>0.06592327287019389</v>
+        <v>0.05196940235695525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1273193333333333</v>
+        <v>0.183755</v>
       </c>
       <c r="H12">
-        <v>0.381958</v>
+        <v>0.551265</v>
       </c>
       <c r="I12">
-        <v>0.116015199054767</v>
+        <v>0.1652381883013647</v>
       </c>
       <c r="J12">
-        <v>0.116015199054767</v>
+        <v>0.1652381883013647</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N12">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O12">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P12">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q12">
-        <v>0.02328670606666666</v>
+        <v>0.096625177935</v>
       </c>
       <c r="R12">
-        <v>0.2095803546</v>
+        <v>0.869626601415</v>
       </c>
       <c r="S12">
-        <v>0.01254795396409259</v>
+        <v>0.0284393269946855</v>
       </c>
       <c r="T12">
-        <v>0.01254795396409259</v>
+        <v>0.02843932699468549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.183755</v>
+      </c>
+      <c r="H13">
+        <v>0.551265</v>
+      </c>
+      <c r="I13">
+        <v>0.1652381883013647</v>
+      </c>
+      <c r="J13">
+        <v>0.1652381883013647</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.1273193333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.381958</v>
-      </c>
-      <c r="I13">
-        <v>0.116015199054767</v>
-      </c>
-      <c r="J13">
-        <v>0.116015199054767</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M13">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N13">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O13">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P13">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q13">
-        <v>0.01298041823222222</v>
+        <v>0.03901339155999999</v>
       </c>
       <c r="R13">
-        <v>0.11682376409</v>
+        <v>0.35112052404</v>
       </c>
       <c r="S13">
-        <v>0.006994449534695718</v>
+        <v>0.01148266552733198</v>
       </c>
       <c r="T13">
-        <v>0.006994449534695717</v>
+        <v>0.01148266552733198</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2645343333333334</v>
+        <v>0.04577233333333334</v>
       </c>
       <c r="H14">
-        <v>0.7936030000000001</v>
+        <v>0.137317</v>
       </c>
       <c r="I14">
-        <v>0.2410474712284081</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="J14">
-        <v>0.241047471228408</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4452923333333333</v>
+        <v>1.356166333333333</v>
       </c>
       <c r="N14">
-        <v>1.335877</v>
+        <v>4.068499</v>
       </c>
       <c r="O14">
-        <v>0.2633234518811916</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="P14">
-        <v>0.2633234518811915</v>
+        <v>0.4438852433350371</v>
       </c>
       <c r="Q14">
-        <v>0.1177951105367778</v>
+        <v>0.06207489746477778</v>
       </c>
       <c r="R14">
-        <v>1.060155994831</v>
+        <v>0.5586740771830001</v>
       </c>
       <c r="S14">
-        <v>0.06347345219109661</v>
+        <v>0.01827027225088224</v>
       </c>
       <c r="T14">
-        <v>0.0634734521910966</v>
+        <v>0.01827027225088224</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2645343333333334</v>
+        <v>0.04577233333333334</v>
       </c>
       <c r="H15">
-        <v>0.7936030000000001</v>
+        <v>0.137317</v>
       </c>
       <c r="I15">
-        <v>0.2410474712284081</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="J15">
-        <v>0.241047471228408</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.960903</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N15">
         <v>2.882709</v>
       </c>
       <c r="O15">
-        <v>0.5682296234226488</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="P15">
-        <v>0.5682296234226487</v>
+        <v>0.3145120561487422</v>
       </c>
       <c r="Q15">
-        <v>0.254191834503</v>
+        <v>0.04398277241700001</v>
       </c>
       <c r="R15">
-        <v>2.287726510527</v>
+        <v>0.3958449517530001</v>
       </c>
       <c r="S15">
-        <v>0.1369703138031001</v>
+        <v>0.01294528479669492</v>
       </c>
       <c r="T15">
-        <v>0.1369703138031</v>
+        <v>0.01294528479669492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2645343333333334</v>
+        <v>0.04577233333333334</v>
       </c>
       <c r="H16">
-        <v>0.7936030000000001</v>
+        <v>0.137317</v>
       </c>
       <c r="I16">
-        <v>0.2410474712284081</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="J16">
-        <v>0.241047471228408</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1829</v>
+        <v>0.525837</v>
       </c>
       <c r="N16">
-        <v>0.5487</v>
+        <v>1.577511</v>
       </c>
       <c r="O16">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="P16">
-        <v>0.1081578454058344</v>
+        <v>0.1721111038981938</v>
       </c>
       <c r="Q16">
-        <v>0.04838332956666667</v>
+        <v>0.024068786443</v>
       </c>
       <c r="R16">
-        <v>0.4354499661</v>
+        <v>0.2166190779870001</v>
       </c>
       <c r="S16">
-        <v>0.02607117512858947</v>
+        <v>0.007084075834542786</v>
       </c>
       <c r="T16">
-        <v>0.02607117512858946</v>
+        <v>0.007084075834542786</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2645343333333334</v>
+        <v>0.04577233333333334</v>
       </c>
       <c r="H17">
-        <v>0.7936030000000001</v>
+        <v>0.137317</v>
       </c>
       <c r="I17">
-        <v>0.2410474712284081</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="J17">
-        <v>0.241047471228408</v>
+        <v>0.04115990005347428</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1019516666666667</v>
+        <v>0.212312</v>
       </c>
       <c r="N17">
-        <v>0.305855</v>
+        <v>0.6369359999999999</v>
       </c>
       <c r="O17">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="P17">
-        <v>0.06028907929032527</v>
+        <v>0.06949159661802674</v>
       </c>
       <c r="Q17">
-        <v>0.02696971617388889</v>
+        <v>0.009718015634666666</v>
       </c>
       <c r="R17">
-        <v>0.2427274455650001</v>
+        <v>0.08746214071200001</v>
       </c>
       <c r="S17">
-        <v>0.01453253010562189</v>
+        <v>0.002860267171354332</v>
       </c>
       <c r="T17">
-        <v>0.01453253010562189</v>
+        <v>0.002860267171354332</v>
       </c>
     </row>
   </sheetData>
